--- a/Data/PAST Predilection diversity result.xlsx
+++ b/Data/PAST Predilection diversity result.xlsx
@@ -57691,7 +57691,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
